--- a/数据/2号水准路线内业计算.xlsx
+++ b/数据/2号水准路线内业计算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\78753\Desktop\SurveyRecord\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F9DAA-08FA-4740-B4A8-496AA5C12ACF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD77C7B-2199-4090-976B-9DAAEDBB972A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,9 +310,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -404,7 +404,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -453,13 +453,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,10 +501,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -496,6 +522,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,22 +552,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,24 +838,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="42.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -852,749 +887,768 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>83.4</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="13">
         <v>0.88700000000000001</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="14">
         <v>0</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="22">
+        <f>E3+F3*0.001</f>
         <v>0.88700000000000001</v>
       </c>
       <c r="H3" s="6">
         <v>8.7919999999999998</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="13">
         <f>H3+G3</f>
         <v>9.6790000000000003</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17">
+      <c r="B5" s="17"/>
+      <c r="C5" s="16">
         <v>132.30000000000001</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="13">
         <v>0.68400000000000005</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="22">
+        <f t="shared" ref="G5" si="0">E5+F5*0.001</f>
         <v>0.68500000000000005</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="13">
         <f>H4+G5</f>
         <v>10.364000000000001</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17">
+      <c r="B7" s="17"/>
+      <c r="C7" s="16">
         <v>117.5</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="13">
         <v>0.308</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="22">
+        <f t="shared" ref="G7" si="1">E7+F7*0.001</f>
         <v>0.309</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18">
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="13">
         <f>H6+G7</f>
         <v>10.673</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17">
+      <c r="B9" s="17"/>
+      <c r="C9" s="16">
         <v>63.6</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="13">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="14">
         <v>0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="22">
+        <f t="shared" ref="G9" si="2">E9+F9*0.001</f>
         <v>0.17100000000000001</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="21"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18">
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="13">
         <f>H8+G9</f>
         <v>10.843999999999999</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17">
+      <c r="B11" s="17"/>
+      <c r="C11" s="16">
         <v>27.8</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>2</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="13">
         <v>3.0369999999999999</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="14">
         <v>0</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="22">
+        <f t="shared" ref="G11" si="3">E11+F11*0.001</f>
         <v>3.0369999999999999</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="21"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18">
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="13">
         <f>H10+G11</f>
         <v>13.881</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="21">
         <v>6</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17">
+      <c r="B13" s="17"/>
+      <c r="C13" s="16">
         <v>65</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="13">
         <v>1.9450000000000001</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="14">
         <v>0</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="22">
+        <f t="shared" ref="G13" si="4">E13+F13*0.001</f>
         <v>1.9450000000000001</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="21"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="13">
         <f>H12+G13</f>
         <v>15.826000000000001</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17">
+      <c r="B15" s="17"/>
+      <c r="C15" s="16">
         <v>40.1</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="17">
         <v>1</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="13">
         <v>0.1</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="14">
         <v>0</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="22">
+        <f t="shared" ref="G15" si="5">E15+F15*0.001</f>
         <v>0.1</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="21"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="13">
         <f>H14+G15</f>
         <v>15.926</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="21">
         <v>8</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17">
+      <c r="B17" s="17"/>
+      <c r="C17" s="16">
         <v>46.8</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="13">
         <v>2.2429999999999999</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="14">
         <v>0</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="22">
+        <f t="shared" ref="G17" si="6">E17+F17*0.001</f>
         <v>2.2429999999999999</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="21"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18">
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="13">
         <f>H16+G17</f>
         <v>18.169</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="21">
         <v>9</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17">
+      <c r="B19" s="17"/>
+      <c r="C19" s="16">
         <v>31</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="17">
         <v>2</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="13">
         <v>5.0579999999999998</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="14">
         <v>0</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="22">
+        <f t="shared" ref="G19" si="7">E19+F19*0.001</f>
         <v>5.0579999999999998</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="21"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18">
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="13">
         <f>H18+G19</f>
         <v>23.227</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="21">
         <v>10</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17">
+      <c r="B21" s="17"/>
+      <c r="C21" s="16">
         <v>21.8</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="17">
         <v>1</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="13">
         <v>0.83</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="14">
         <v>0</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="23">
+        <f t="shared" ref="G21" si="8">E21+F21*0.001</f>
         <v>0.83</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="21"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18">
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="13">
         <f>H20+G21</f>
         <v>24.056999999999999</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="21">
         <v>11</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17">
+      <c r="B23" s="17"/>
+      <c r="C23" s="16">
         <v>36.700000000000003</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="17">
         <v>1</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="13">
         <v>-1.44</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="14">
         <v>0</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="23">
+        <f t="shared" ref="G23" si="9">E23+F23*0.001</f>
         <v>-1.44</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="21"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18">
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="13">
         <f>H22+G23</f>
         <v>22.616999999999997</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="21">
         <v>12</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17">
+      <c r="B25" s="17"/>
+      <c r="C25" s="16">
         <v>36.200000000000003</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="17">
         <v>4</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="13">
         <v>-5.9770000000000003</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="14">
         <v>0</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="23">
+        <f t="shared" ref="G25" si="10">E25+F25*0.001</f>
         <v>-5.9770000000000003</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="21"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18">
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="13">
         <f>H24+G25</f>
         <v>16.639999999999997</v>
       </c>
-      <c r="I26" s="21"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="21">
         <v>13</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17">
+      <c r="B27" s="17"/>
+      <c r="C27" s="16">
         <v>9.9</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="17">
         <v>1</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="13">
         <v>-2.1120000000000001</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="14">
         <v>0</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="23">
+        <f t="shared" ref="G27" si="11">E27+F27*0.001</f>
         <v>-2.1120000000000001</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="21"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18">
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="13">
         <f>H26+G27</f>
         <v>14.527999999999997</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="21">
         <v>14</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17">
+      <c r="B29" s="17"/>
+      <c r="C29" s="16">
         <v>19</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="17">
         <v>2</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="13">
         <v>-4.758</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="14">
         <v>0</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="23">
+        <f t="shared" ref="G29" si="12">E29+F29*0.001</f>
         <v>-4.758</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="21"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18">
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="13">
         <f>H28+G29</f>
         <v>9.769999999999996</v>
       </c>
-      <c r="I30" s="21"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="21">
         <v>15</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17">
+      <c r="B31" s="17"/>
+      <c r="C31" s="16">
         <v>27.7</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="17">
         <v>1</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="13">
         <v>-1.4510000000000001</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="14">
         <v>0</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="23">
+        <f t="shared" ref="G31" si="13">E31+F31*0.001</f>
         <v>-1.4510000000000001</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="21"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18">
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="13">
         <f>H30+G31</f>
         <v>8.3189999999999955</v>
       </c>
-      <c r="I32" s="21"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="21">
         <v>16</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17">
+      <c r="B33" s="17"/>
+      <c r="C33" s="16">
         <v>33.4</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="17">
         <v>1</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="13">
         <v>-1.8120000000000001</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="14">
         <v>0</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="23">
+        <f t="shared" ref="G33" si="14">E33+F33*0.001</f>
         <v>-1.8120000000000001</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="21"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18">
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="13">
         <f>H32+G33</f>
         <v>6.5069999999999952</v>
       </c>
-      <c r="I34" s="21"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="A35" s="21">
         <v>17</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17">
+      <c r="B35" s="17"/>
+      <c r="C35" s="16">
         <v>36.799999999999997</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="17">
         <v>1</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="13">
         <v>0.35399999999999998</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="14">
         <v>0</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="23">
+        <f t="shared" ref="G35" si="15">E35+F35*0.001</f>
         <v>0.35399999999999998</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="21"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18">
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="13">
         <f>H34+G35</f>
         <v>6.8609999999999953</v>
       </c>
-      <c r="I36" s="21"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="A37" s="21">
         <v>18</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17">
+      <c r="B37" s="17"/>
+      <c r="C37" s="16">
         <v>86.1</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="17">
         <v>1</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="13">
         <v>0.79100000000000004</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="14">
         <v>0</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="23">
+        <f t="shared" ref="G37" si="16">E37+F37*0.001</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="21"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18">
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="13">
         <f>H36+G37</f>
         <v>7.6519999999999957</v>
       </c>
-      <c r="I38" s="21"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+      <c r="A39" s="21">
         <v>19</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17">
+      <c r="B39" s="17"/>
+      <c r="C39" s="16">
         <v>115.9</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="17">
         <v>1</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="13">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="14">
         <v>0</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="23">
+        <f t="shared" ref="G39" si="17">E39+F39*0.001</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="21"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="4">
         <v>2</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18">
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="13">
         <f>H38+G39</f>
         <v>8.7919999999999963</v>
       </c>
-      <c r="I40" s="21"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -1602,44 +1656,174 @@
         <v>29</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" ref="C41:G41" si="0">SUM(C3:C40)</f>
+        <f t="shared" ref="C41:G41" si="18">SUM(C3:C40)</f>
         <v>1031</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="21"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="I3:I41"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="H4:H5"/>
@@ -1664,136 +1848,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
